--- a/public/assets/files/template.xlsx
+++ b/public/assets/files/template.xlsx
@@ -5,16 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hieu\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thuc Tap Sinh\TDC_Project\mid_web_v3\public\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9986602-3FC7-4479-8419-F52D6AB71A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A5CE23-C2EE-4D08-A7D6-AD56B1B3D9A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{C87C49A3-AECA-4226-AF70-5D5A9A360977}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C87C49A3-AECA-4226-AF70-5D5A9A360977}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -103,6 +102,15 @@
     <t>nhắc nhở cho Hiếu</t>
   </si>
   <si>
+    <t>234ABCD</t>
+  </si>
+  <si>
+    <t>332ABCD</t>
+  </si>
+  <si>
+    <t>50H5445GG</t>
+  </si>
+  <si>
     <t>Thay lốp định kỳ</t>
   </si>
   <si>
@@ -112,6 +120,9 @@
     <t>Lịch gia hạn phù hiệu KDVT</t>
   </si>
   <si>
+    <t>323SSWE</t>
+  </si>
+  <si>
     <t>92937232</t>
   </si>
   <si>
@@ -169,25 +180,13 @@
     <t>12:00</t>
   </si>
   <si>
-    <t>50H5445GGV</t>
-  </si>
-  <si>
-    <t>234ABCDV</t>
-  </si>
-  <si>
-    <t>332ABCDV</t>
-  </si>
-  <si>
-    <t>323SSWEV</t>
-  </si>
-  <si>
     <t>Thời gian mặc định</t>
   </si>
   <si>
-    <t>10:00</t>
-  </si>
-  <si>
     <t>Loại của excel</t>
+  </si>
+  <si>
+    <t>14:00</t>
   </si>
   <si>
     <t>Thêm mới</t>
@@ -547,277 +546,253 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC60E16-D6C0-44BD-AE63-3D55872F76E9}">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView zoomScale="117" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.109375" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
-    <col min="4" max="4" width="19.5546875" customWidth="1"/>
-    <col min="5" max="5" width="36.6640625" customWidth="1"/>
-    <col min="6" max="6" width="25.88671875" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" customWidth="1"/>
-    <col min="8" max="8" width="29.5546875" customWidth="1"/>
-    <col min="9" max="9" width="24.5546875" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" customWidth="1"/>
-    <col min="11" max="11" width="29.6640625" customWidth="1"/>
-    <col min="12" max="12" width="11.109375" customWidth="1"/>
-    <col min="13" max="13" width="29.33203125" customWidth="1"/>
-    <col min="14" max="14" width="21.33203125" customWidth="1"/>
-    <col min="15" max="15" width="28.109375" customWidth="1"/>
-    <col min="16" max="16" width="23.88671875" customWidth="1"/>
-    <col min="17" max="17" width="39.6640625" customWidth="1"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" customWidth="1"/>
+    <col min="7" max="7" width="36.6640625" customWidth="1"/>
+    <col min="8" max="8" width="25.88671875" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" customWidth="1"/>
+    <col min="10" max="10" width="29.5546875" customWidth="1"/>
+    <col min="11" max="11" width="24.5546875" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" customWidth="1"/>
+    <col min="13" max="13" width="29.6640625" customWidth="1"/>
+    <col min="14" max="14" width="11.109375" customWidth="1"/>
+    <col min="15" max="15" width="29.33203125" customWidth="1"/>
+    <col min="16" max="16" width="21.33203125" customWidth="1"/>
+    <col min="17" max="17" width="28.109375" customWidth="1"/>
+    <col min="18" max="18" width="23.88671875" customWidth="1"/>
+    <col min="19" max="19" width="39.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>39</v>
       </c>
       <c r="K1" t="s">
         <v>7</v>
       </c>
       <c r="L1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M1" t="s">
         <v>7</v>
       </c>
       <c r="N1" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="O1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="P1" t="s">
         <v>9</v>
       </c>
+      <c r="Q1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="2">
+        <v>3</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="P2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="2">
+        <v>4</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="2">
+        <v>7</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="2">
+        <v>4</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="2">
-        <v>3</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L2" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="M2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" t="s">
-        <v>11</v>
-      </c>
-      <c r="P2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="2">
-        <v>4</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="L5" s="1"/>
+      <c r="M5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="2">
-        <v>7</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="2">
-        <v>4</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L5" s="1"/>
+      <c r="N5" s="1"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E2:E5" xr:uid="{893CC5EA-717A-44B5-B5E9-8BD65D12980D}">
-      <formula1>"TNDS bắt buộc,Bảo hiểm tự nguyện,Lịch gia hạn phù hiệu KDVT,Thay dầu-nhớt định kỳ,Thay bình Accu định kỳ,Thay lốp định kỳ"</formula1>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{DD785DC0-644D-465B-9FFF-7FDAB98C084E}">
+      <formula1>"Thêm mới, Thay thế"</formula1>
     </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E88994-0A71-4644-94C1-CD076763F3D0}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19.109375" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{30C3E264-9E3D-42B6-A091-370DE37EE82D}">
-      <formula1>"Thêm mới, Thay thế"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="G2 G3 G4 G5" xr:uid="{94679A6E-9567-4F94-B401-61E51203B640}">
+      <formula1>"Lịch bảo dưỡng PT, Hạn đăng kiểm PT,Bảo hiểm TNDS bắt buộc,Bảo hiểm tự nguyện ,Lịch gia hạn phù hiệu KDVT,Thay lốp định kỳ,Thay dầu-nhớt định kỳ,Thay bình Accu định kỳ"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/assets/files/template.xlsx
+++ b/public/assets/files/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thuc Tap Sinh\TDC_Project\mid_web_v3\public\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A5CE23-C2EE-4D08-A7D6-AD56B1B3D9A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B2780F-A839-4B53-9D52-87AD2DFC96AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C87C49A3-AECA-4226-AF70-5D5A9A360977}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="55">
   <si>
     <t>Biển số xe</t>
   </si>
@@ -183,13 +183,13 @@
     <t>Thời gian mặc định</t>
   </si>
   <si>
-    <t>Loại của excel</t>
-  </si>
-  <si>
     <t>14:00</t>
   </si>
   <si>
     <t>Thêm mới</t>
+  </si>
+  <si>
+    <t>Tùy chọn cập nhật</t>
   </si>
 </sst>
 </file>
@@ -549,7 +549,7 @@
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -579,7 +579,7 @@
         <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -632,10 +632,10 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
         <v>53</v>
-      </c>
-      <c r="B2" t="s">
-        <v>54</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>27</v>
@@ -687,6 +687,9 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>25</v>
       </c>
@@ -723,6 +726,9 @@
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>26</v>
       </c>
@@ -753,6 +759,9 @@
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>31</v>
       </c>
@@ -788,10 +797,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{DD785DC0-644D-465B-9FFF-7FDAB98C084E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B5" xr:uid="{DD785DC0-644D-465B-9FFF-7FDAB98C084E}">
       <formula1>"Thêm mới, Thay thế"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="G2 G3 G4 G5" xr:uid="{94679A6E-9567-4F94-B401-61E51203B640}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="G2:G5" xr:uid="{94679A6E-9567-4F94-B401-61E51203B640}">
       <formula1>"Lịch bảo dưỡng PT, Hạn đăng kiểm PT,Bảo hiểm TNDS bắt buộc,Bảo hiểm tự nguyện ,Lịch gia hạn phù hiệu KDVT,Thay lốp định kỳ,Thay dầu-nhớt định kỳ,Thay bình Accu định kỳ"</formula1>
     </dataValidation>
   </dataValidations>

--- a/public/assets/files/template.xlsx
+++ b/public/assets/files/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thuc Tap Sinh\TDC_Project\mid_web_v3\public\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B2780F-A839-4B53-9D52-87AD2DFC96AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57613BB-FC37-4B0C-9B0B-F62DEFE464CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C87C49A3-AECA-4226-AF70-5D5A9A360977}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8880" xr2:uid="{C87C49A3-AECA-4226-AF70-5D5A9A360977}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -66,15 +66,6 @@
     <t>vxcv,201x10,hehe</t>
   </si>
   <si>
-    <t>Nguyễn Viết Thịnh</t>
-  </si>
-  <si>
-    <t>Ngô Đăng Khoa</t>
-  </si>
-  <si>
-    <t>Phạm Trọng hiếu</t>
-  </si>
-  <si>
     <t>123 đường 235</t>
   </si>
   <si>
@@ -102,15 +93,9 @@
     <t>nhắc nhở cho Hiếu</t>
   </si>
   <si>
-    <t>234ABCD</t>
-  </si>
-  <si>
     <t>332ABCD</t>
   </si>
   <si>
-    <t>50H5445GG</t>
-  </si>
-  <si>
     <t>Thay lốp định kỳ</t>
   </si>
   <si>
@@ -126,9 +111,6 @@
     <t>92937232</t>
   </si>
   <si>
-    <t>Nguoi dung moi</t>
-  </si>
-  <si>
     <t>Dia chi an com</t>
   </si>
   <si>
@@ -186,10 +168,28 @@
     <t>14:00</t>
   </si>
   <si>
+    <t>Tùy chọn cập nhật</t>
+  </si>
+  <si>
+    <t>50H5445G1</t>
+  </si>
+  <si>
+    <t>234ABC23</t>
+  </si>
+  <si>
+    <t>Nguyễn Viết Thịnh1</t>
+  </si>
+  <si>
+    <t>Ngô Đăng Khoa1</t>
+  </si>
+  <si>
+    <t>Phạm Trọng hiếu1</t>
+  </si>
+  <si>
+    <t>Nguoi dung moi1</t>
+  </si>
+  <si>
     <t>Thêm mới</t>
-  </si>
-  <si>
-    <t>Tùy chọn cập nhật</t>
   </si>
 </sst>
 </file>
@@ -549,7 +549,7 @@
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -576,10 +576,10 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -609,13 +609,13 @@
         <v>7</v>
       </c>
       <c r="L1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="M1" t="s">
         <v>7</v>
       </c>
       <c r="N1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="O1" t="s">
         <v>7</v>
@@ -632,49 +632,49 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="I2" s="2">
         <v>3</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="M2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="O2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="P2" t="s">
         <v>10</v>
@@ -688,110 +688,110 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I3" s="2">
         <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="I4" s="2">
         <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="F5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="I5" s="2">
         <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="N5" s="1"/>
     </row>
